--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_15.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_15.xlsx
@@ -508,442 +508,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_5</t>
+          <t>model_1_15_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998378991736842</v>
+        <v>0.9338815640869516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8294357603569249</v>
+        <v>0.7457993386000811</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8227696956985394</v>
+        <v>0.6833953426415988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996977042796032</v>
+        <v>0.939882081746139</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006747490171181907</v>
+        <v>0.2752197546408871</v>
       </c>
       <c r="G2" t="n">
-        <v>1.140563855869351</v>
+        <v>1.699840993267677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6339425220828359</v>
+        <v>1.132476501578194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00141389743857331</v>
+        <v>0.4528793289943044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04848053665429705</v>
+        <v>1.294543740758632</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02597593149664109</v>
+        <v>0.5246139100718614</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010374452884214</v>
+        <v>0.9099663851396788</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02638502645130811</v>
+        <v>0.5328760547339801</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6023395254558</v>
+        <v>36.58037078529431</v>
       </c>
       <c r="O2" t="n">
-        <v>285.9375120686723</v>
+        <v>73.54495437352013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_4</t>
+          <t>model_1_15_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998377470294614</v>
+        <v>0.9338346027831264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8294109832186785</v>
+        <v>0.7457933774995592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.822636266819317</v>
+        <v>0.6833499020301368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997054677548073</v>
+        <v>0.9396965591923431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006753823215073458</v>
+        <v>0.2754152323217776</v>
       </c>
       <c r="G3" t="n">
-        <v>1.140729540706893</v>
+        <v>1.699880855174315</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6344197894471636</v>
+        <v>1.132639040010596</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001377586115042109</v>
+        <v>0.4542769044945339</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0489920765242415</v>
+        <v>1.293373149178363</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02598811885280167</v>
+        <v>0.5248001832333689</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010384190114472</v>
+        <v>0.9099024378323423</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02639740574614533</v>
+        <v>0.5330652615115765</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6004632504077</v>
+        <v>36.57895076881348</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9356357936241</v>
+        <v>73.54353435703929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_3</t>
+          <t>model_1_15_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998383493667831</v>
+        <v>0.9356483006056028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8293529041498823</v>
+        <v>0.7456184959023218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8224601366634441</v>
+        <v>0.6693049390476702</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997146184759986</v>
+        <v>0.9484630592292084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006728750763255304</v>
+        <v>0.267865666715732</v>
       </c>
       <c r="G4" t="n">
-        <v>1.141117915707363</v>
+        <v>1.701050289220297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6350497968021077</v>
+        <v>1.182877058225134</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001334786365060272</v>
+        <v>0.3882372482715881</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04952839006799448</v>
+        <v>1.354447590236058</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02593983570351845</v>
+        <v>0.5175574042709968</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010345640525884</v>
+        <v>0.9123721540161399</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02634836218552634</v>
+        <v>0.5257084160206698</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6079017353024</v>
+        <v>36.63453933546772</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9430742785188</v>
+        <v>73.59912292369354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_9</t>
+          <t>model_1_15_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998142526198046</v>
+        <v>0.9354329863127762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8293219791328229</v>
+        <v>0.7455962246942727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.826503046775086</v>
+        <v>0.6689575512053128</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994719627392585</v>
+        <v>0.9470666951878082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007731784289299039</v>
+        <v>0.2687619182078322</v>
       </c>
       <c r="G5" t="n">
-        <v>1.141324711438835</v>
+        <v>1.701199216891072</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6205885417541619</v>
+        <v>1.184119644394543</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002469735692764037</v>
+        <v>0.3987563152730556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04118037368464749</v>
+        <v>1.343330612094728</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02780608618504057</v>
+        <v>0.5184225286461153</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011887832332505</v>
+        <v>0.9120789600854824</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02824400424656638</v>
+        <v>0.5265871652398892</v>
       </c>
       <c r="N5" t="n">
-        <v>144.3300014189089</v>
+        <v>36.62785870740743</v>
       </c>
       <c r="O5" t="n">
-        <v>285.6651739621253</v>
+        <v>73.59244229563325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_2</t>
+          <t>model_1_15_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998315932146283</v>
+        <v>0.9356757135595943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8293007305571195</v>
+        <v>0.7455950193082403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8227296634852692</v>
+        <v>0.6693526367501639</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999721704684559</v>
+        <v>0.9486623597831757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007009977400374225</v>
+        <v>0.2677515595629029</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141466800762405</v>
+        <v>1.701207277313019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6340857149885024</v>
+        <v>1.182706446308986</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001301642752839878</v>
+        <v>0.386735880563416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04833065100399355</v>
+        <v>1.356117439723413</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0264763619109088</v>
+        <v>0.5174471562999481</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010778034263787</v>
+        <v>0.9124094822939157</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02689333814435365</v>
+        <v>0.5255964317542846</v>
       </c>
       <c r="N6" t="n">
-        <v>144.5260117896945</v>
+        <v>36.63539148994639</v>
       </c>
       <c r="O6" t="n">
-        <v>285.8611843329109</v>
+        <v>73.59997507817221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_8</t>
+          <t>model_1_15_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998139976493058</v>
+        <v>0.9357021947056655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8292995631248248</v>
+        <v>0.745562957827268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8265031970240833</v>
+        <v>0.6693994823741414</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994774603545233</v>
+        <v>0.9488614352356365</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000774239750438266</v>
+        <v>0.2676413310854188</v>
       </c>
       <c r="G7" t="n">
-        <v>1.141474607387535</v>
+        <v>1.701421672583911</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6205880043222107</v>
+        <v>1.182538882228284</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002444022248554376</v>
+        <v>0.3852362085862698</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0415788273492804</v>
+        <v>1.357807526431038</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0278251639786411</v>
+        <v>0.5173406335147268</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01190415044443</v>
+        <v>0.9124455417268637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02826338249634532</v>
+        <v>0.5254882313416798</v>
       </c>
       <c r="N7" t="n">
-        <v>144.3272579545011</v>
+        <v>36.63621502332508</v>
       </c>
       <c r="O7" t="n">
-        <v>285.6624304977175</v>
+        <v>73.6007986115509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_7</t>
+          <t>model_1_15_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998131344589245</v>
+        <v>0.9358595500969052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8292686772263116</v>
+        <v>0.745316468711971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8264340288309994</v>
+        <v>0.6859245020148795</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994792201997514</v>
+        <v>0.9502482069352788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007778328034448528</v>
+        <v>0.266986335068493</v>
       </c>
       <c r="G8" t="n">
-        <v>1.141681141533109</v>
+        <v>1.70306994643288</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6208354149382695</v>
+        <v>1.123429845149056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002435791101064217</v>
+        <v>0.3747894024585149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04204288257256101</v>
+        <v>1.370191835666446</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02788965405746104</v>
+        <v>0.5167072043899649</v>
       </c>
       <c r="L8" t="n">
-        <v>1.011959394628832</v>
+        <v>0.9126598128979135</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02832888822944024</v>
+        <v>0.5248448263413997</v>
       </c>
       <c r="N8" t="n">
-        <v>144.3179979249585</v>
+        <v>36.64111560282071</v>
       </c>
       <c r="O8" t="n">
-        <v>285.6531704681749</v>
+        <v>73.60569919104654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_1</t>
+          <t>model_1_15_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998303399261106</v>
+        <v>0.9359378105576429</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829267286503155</v>
+        <v>0.7452862022603735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8226058962284029</v>
+        <v>0.6698957297932933</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997266188253654</v>
+        <v>0.9512276385737555</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007062145869510965</v>
+        <v>0.2666605738113662</v>
       </c>
       <c r="G9" t="n">
-        <v>1.141690441305261</v>
+        <v>1.703272338334077</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6345284232898754</v>
+        <v>1.180763833984057</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001278658335165356</v>
+        <v>0.3674111638881764</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04890966975736393</v>
+        <v>1.379669277791514</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02657469824760192</v>
+        <v>0.516391880078847</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010858244728922</v>
+        <v>0.9127663803338116</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02699322318004941</v>
+        <v>0.5245245359875902</v>
       </c>
       <c r="N9" t="n">
-        <v>144.5111828382618</v>
+        <v>36.64355737690144</v>
       </c>
       <c r="O9" t="n">
-        <v>285.8463553814782</v>
+        <v>73.60814096512726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_6</t>
+          <t>model_1_15_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998147298919483</v>
+        <v>0.9359690108193264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8292078364840967</v>
+        <v>0.744938856940049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8263048063335741</v>
+        <v>0.6699952442880004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994925001784408</v>
+        <v>0.9518083856629959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000771191770890093</v>
+        <v>0.2665307018891605</v>
       </c>
       <c r="G10" t="n">
-        <v>1.142087983856446</v>
+        <v>1.705595038090465</v>
       </c>
       <c r="H10" t="n">
-        <v>0.621297636318809</v>
+        <v>1.180407876406671</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002373677989344839</v>
+        <v>0.3630362893128461</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04230474679699748</v>
+        <v>1.385623679391951</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02777033976907904</v>
+        <v>0.5162661153796175</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011857286915308</v>
+        <v>0.9128088657965295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02820769486028676</v>
+        <v>0.5243967906200665</v>
       </c>
       <c r="N10" t="n">
-        <v>144.3351469705024</v>
+        <v>36.64453167584963</v>
       </c>
       <c r="O10" t="n">
-        <v>285.6703195137188</v>
+        <v>73.60911526407544</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998185720789876</v>
+        <v>0.9359726285108816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82879651483023</v>
+        <v>0.7444760871524502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8212958609230563</v>
+        <v>0.670224403774178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997852206429456</v>
+        <v>0.95369237955859</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007551985647646987</v>
+        <v>0.2665156431514812</v>
       </c>
       <c r="G11" t="n">
-        <v>1.144838493649815</v>
+        <v>1.708689581790998</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6392143436168888</v>
+        <v>1.179588186212044</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001004565934307771</v>
+        <v>0.3488438169843278</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05310822598016169</v>
+        <v>1.407915691124507</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02748087634637401</v>
+        <v>0.5162515308950485</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011611386944793</v>
+        <v>0.9128137920148175</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0279136726780314</v>
+        <v>0.5243819764444447</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3770596872105</v>
+        <v>36.64464467718862</v>
       </c>
       <c r="O11" t="n">
-        <v>285.7122322304269</v>
+        <v>73.60922826541443</v>
       </c>
     </row>
   </sheetData>
